--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.84940712500628</v>
+        <v>1.8598525</v>
       </c>
       <c r="N2">
-        <v>1.84940712500628</v>
+        <v>3.719705</v>
       </c>
       <c r="O2">
-        <v>0.3856998573260713</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P2">
-        <v>0.3856998573260713</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q2">
-        <v>360.3241979057988</v>
+        <v>362.8186094223213</v>
       </c>
       <c r="R2">
-        <v>360.3241979057988</v>
+        <v>1451.274437689285</v>
       </c>
       <c r="S2">
-        <v>0.1033242117246864</v>
+        <v>0.06855182908934911</v>
       </c>
       <c r="T2">
-        <v>0.1033242117246864</v>
+        <v>0.03755807595158598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.62438976796165</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N3">
-        <v>1.62438976796165</v>
+        <v>5.007457</v>
       </c>
       <c r="O3">
-        <v>0.3387717573233698</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P3">
-        <v>0.3387717573233698</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q3">
-        <v>316.4835542769852</v>
+        <v>325.6169661271649</v>
       </c>
       <c r="R3">
-        <v>316.4835542769852</v>
+        <v>1953.701796762989</v>
       </c>
       <c r="S3">
-        <v>0.090752755322987</v>
+        <v>0.06152286026916378</v>
       </c>
       <c r="T3">
-        <v>0.090752755322987</v>
+        <v>0.05056058217796865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.32114168395456</v>
+        <v>1.614337</v>
       </c>
       <c r="N4">
-        <v>1.32114168395456</v>
+        <v>4.843011</v>
       </c>
       <c r="O4">
-        <v>0.2755283853505588</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P4">
-        <v>0.2755283853505588</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q4">
-        <v>257.4010401248058</v>
+        <v>314.9236326423745</v>
       </c>
       <c r="R4">
-        <v>257.4010401248058</v>
+        <v>1889.541795854247</v>
       </c>
       <c r="S4">
-        <v>0.07381063975881794</v>
+        <v>0.05950243587414192</v>
       </c>
       <c r="T4">
-        <v>0.07381063975881794</v>
+        <v>0.04890016143010437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84940712500628</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N5">
-        <v>1.84940712500628</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O5">
-        <v>0.3856998573260713</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P5">
-        <v>0.3856998573260713</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q5">
-        <v>108.7506978448533</v>
+        <v>351.8274874799607</v>
       </c>
       <c r="R5">
-        <v>108.7506978448533</v>
+        <v>2110.964924879764</v>
       </c>
       <c r="S5">
-        <v>0.03118463926274153</v>
+        <v>0.06647513982004023</v>
       </c>
       <c r="T5">
-        <v>0.03118463926274153</v>
+        <v>0.0546304537038519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.62438976796165</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N6">
-        <v>1.62438976796165</v>
+        <v>0.651809</v>
       </c>
       <c r="O6">
-        <v>0.3387717573233698</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P6">
-        <v>0.3387717573233698</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q6">
-        <v>95.5190008999608</v>
+        <v>42.38480112248217</v>
       </c>
       <c r="R6">
-        <v>95.5190008999608</v>
+        <v>254.308806734893</v>
       </c>
       <c r="S6">
-        <v>0.02739040433609255</v>
+        <v>0.008008287246237634</v>
       </c>
       <c r="T6">
-        <v>0.02739040433609255</v>
+        <v>0.006581353071796635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.32114168395456</v>
+        <v>1.8598525</v>
       </c>
       <c r="N7">
-        <v>1.32114168395456</v>
+        <v>3.719705</v>
       </c>
       <c r="O7">
-        <v>0.2755283853505588</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P7">
-        <v>0.2755283853505588</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q7">
-        <v>77.6871020660176</v>
+        <v>116.0695303714559</v>
       </c>
       <c r="R7">
-        <v>77.6871020660176</v>
+        <v>696.4171822287351</v>
       </c>
       <c r="S7">
-        <v>0.02227704558505685</v>
+        <v>0.02193045891767739</v>
       </c>
       <c r="T7">
-        <v>0.02227704558505685</v>
+        <v>0.01802284167960815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.84940712500628</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N8">
-        <v>1.84940712500628</v>
+        <v>5.007457</v>
       </c>
       <c r="O8">
-        <v>0.3856998573260713</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P8">
-        <v>0.3856998573260713</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q8">
-        <v>264.015021490404</v>
+        <v>104.1683291811688</v>
       </c>
       <c r="R8">
-        <v>264.015021490404</v>
+        <v>937.5149626305191</v>
       </c>
       <c r="S8">
-        <v>0.07570722182278704</v>
+        <v>0.01968181706533826</v>
       </c>
       <c r="T8">
-        <v>0.07570722182278704</v>
+        <v>0.02426230164178224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.62438976796165</v>
+        <v>1.614337</v>
       </c>
       <c r="N9">
-        <v>1.62438976796165</v>
+        <v>4.843011</v>
       </c>
       <c r="O9">
-        <v>0.3387717573233698</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P9">
-        <v>0.3387717573233698</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q9">
-        <v>231.8923149470028</v>
+        <v>100.7474181158263</v>
       </c>
       <c r="R9">
-        <v>231.8923149470028</v>
+        <v>906.726763042437</v>
       </c>
       <c r="S9">
-        <v>0.06649592446515562</v>
+        <v>0.01903546182172326</v>
       </c>
       <c r="T9">
-        <v>0.06649592446515562</v>
+        <v>0.0234655222673843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32114168395456</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N10">
-        <v>1.32114168395456</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O10">
-        <v>0.2755283853505588</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P10">
-        <v>0.2755283853505588</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q10">
-        <v>188.6016579934757</v>
+        <v>112.5533536126716</v>
       </c>
       <c r="R10">
-        <v>188.6016579934757</v>
+        <v>1012.980182514044</v>
       </c>
       <c r="S10">
-        <v>0.05408217864746176</v>
+        <v>0.02126610394261173</v>
       </c>
       <c r="T10">
-        <v>0.05408217864746176</v>
+        <v>0.026215294395242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.84940712500628</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N11">
-        <v>1.84940712500628</v>
+        <v>0.651809</v>
       </c>
       <c r="O11">
-        <v>0.3856998573260713</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P11">
-        <v>0.3856998573260713</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q11">
-        <v>260.3123196866671</v>
+        <v>13.55934848272256</v>
       </c>
       <c r="R11">
-        <v>260.3123196866671</v>
+        <v>122.034136344503</v>
       </c>
       <c r="S11">
-        <v>0.07464545925633653</v>
+        <v>0.002561936228217449</v>
       </c>
       <c r="T11">
-        <v>0.07464545925633653</v>
+        <v>0.003158167223568457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H12">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I12">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J12">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62438976796165</v>
+        <v>1.8598525</v>
       </c>
       <c r="N12">
-        <v>1.62438976796165</v>
+        <v>3.719705</v>
       </c>
       <c r="O12">
-        <v>0.3387717573233698</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P12">
-        <v>0.3387717573233698</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q12">
-        <v>228.6401208560004</v>
+        <v>265.7024549185783</v>
       </c>
       <c r="R12">
-        <v>228.6401208560004</v>
+        <v>1594.21472951147</v>
       </c>
       <c r="S12">
-        <v>0.06556334654565557</v>
+        <v>0.05020246703221691</v>
       </c>
       <c r="T12">
-        <v>0.06556334654565557</v>
+        <v>0.04125728142050287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H13">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I13">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J13">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.32114168395456</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N13">
-        <v>1.32114168395456</v>
+        <v>5.007457</v>
       </c>
       <c r="O13">
-        <v>0.2755283853505588</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P13">
-        <v>0.2755283853505588</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q13">
-        <v>185.9565975143485</v>
+        <v>238.4586264769598</v>
       </c>
       <c r="R13">
-        <v>185.9565975143485</v>
+        <v>2146.127638292638</v>
       </c>
       <c r="S13">
-        <v>0.05332369839396129</v>
+        <v>0.04505495193081956</v>
       </c>
       <c r="T13">
-        <v>0.05332369839396129</v>
+        <v>0.05554044276362427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.84940712500628</v>
+        <v>1.614337</v>
       </c>
       <c r="N14">
-        <v>1.84940712500628</v>
+        <v>4.843011</v>
       </c>
       <c r="O14">
-        <v>0.3856998573260713</v>
+        <v>0.225336330459468</v>
       </c>
       <c r="P14">
-        <v>0.3856998573260713</v>
+        <v>0.2466831807683927</v>
       </c>
       <c r="Q14">
-        <v>253.7383397235005</v>
+        <v>230.6275922235193</v>
       </c>
       <c r="R14">
-        <v>253.7383397235005</v>
+        <v>2075.648330011674</v>
       </c>
       <c r="S14">
-        <v>0.07276034773305869</v>
+        <v>0.04357533730303233</v>
       </c>
       <c r="T14">
-        <v>0.07276034773305869</v>
+        <v>0.05371648228813602</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.62438976796165</v>
+        <v>1.803510666666667</v>
       </c>
       <c r="N15">
-        <v>1.62438976796165</v>
+        <v>5.410532000000001</v>
       </c>
       <c r="O15">
-        <v>0.3387717573233698</v>
+        <v>0.2517420312928313</v>
       </c>
       <c r="P15">
-        <v>0.3387717573233698</v>
+        <v>0.2755903803252095</v>
       </c>
       <c r="Q15">
-        <v>222.865997007031</v>
+        <v>257.6533416521876</v>
       </c>
       <c r="R15">
-        <v>222.865997007031</v>
+        <v>2318.880074869688</v>
       </c>
       <c r="S15">
-        <v>0.06390759653340841</v>
+        <v>0.04868164802616598</v>
       </c>
       <c r="T15">
-        <v>0.06390759653340841</v>
+        <v>0.06001116791751934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.32114168395456</v>
+        <v>0.2172696666666667</v>
       </c>
       <c r="N16">
-        <v>1.32114168395456</v>
+        <v>0.651809</v>
       </c>
       <c r="O16">
-        <v>0.2755283853505588</v>
+        <v>0.03032746533519238</v>
       </c>
       <c r="P16">
-        <v>0.2755283853505588</v>
+        <v>0.03320048568410545</v>
       </c>
       <c r="Q16">
-        <v>181.2604119955477</v>
+        <v>31.03960330868955</v>
       </c>
       <c r="R16">
-        <v>181.2604119955477</v>
+        <v>279.3564297782059</v>
       </c>
       <c r="S16">
-        <v>0.05197705093130647</v>
+        <v>0.005864698021985124</v>
       </c>
       <c r="T16">
-        <v>0.05197705093130647</v>
+        <v>0.00722956991089792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H17">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I17">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J17">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.84940712500628</v>
+        <v>1.8598525</v>
       </c>
       <c r="N17">
-        <v>1.84940712500628</v>
+        <v>3.719705</v>
       </c>
       <c r="O17">
-        <v>0.3856998573260713</v>
+        <v>0.2596064746988193</v>
       </c>
       <c r="P17">
-        <v>0.3856998573260713</v>
+        <v>0.1894665655147375</v>
       </c>
       <c r="Q17">
-        <v>97.91678602878662</v>
+        <v>263.3864370158542</v>
       </c>
       <c r="R17">
-        <v>97.91678602878662</v>
+        <v>1580.318622095125</v>
       </c>
       <c r="S17">
-        <v>0.02807797752646116</v>
+        <v>0.04976487298573674</v>
       </c>
       <c r="T17">
-        <v>0.02807797752646116</v>
+        <v>0.04089765884036188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9449598765086</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H18">
-        <v>52.9449598765086</v>
+        <v>424.850525</v>
       </c>
       <c r="I18">
-        <v>0.07279747968048636</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J18">
-        <v>0.07279747968048636</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62438976796165</v>
+        <v>1.669152333333334</v>
       </c>
       <c r="N18">
-        <v>1.62438976796165</v>
+        <v>5.007457</v>
       </c>
       <c r="O18">
-        <v>0.3387717573233698</v>
+        <v>0.2329876982136891</v>
       </c>
       <c r="P18">
-        <v>0.3387717573233698</v>
+        <v>0.2550593877075549</v>
       </c>
       <c r="Q18">
-        <v>86.00325108854067</v>
+        <v>236.3800817072139</v>
       </c>
       <c r="R18">
-        <v>86.00325108854067</v>
+        <v>2127.420735364925</v>
       </c>
       <c r="S18">
-        <v>0.02466173012007067</v>
+        <v>0.04466222663473552</v>
       </c>
       <c r="T18">
-        <v>0.02466173012007067</v>
+        <v>0.05505631980057074</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H19">
+        <v>424.850525</v>
+      </c>
+      <c r="I19">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J19">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>1.614337</v>
+      </c>
+      <c r="N19">
+        <v>4.843011</v>
+      </c>
+      <c r="O19">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P19">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q19">
+        <v>228.6173073256416</v>
+      </c>
+      <c r="R19">
+        <v>2057.555765930775</v>
+      </c>
+      <c r="S19">
+        <v>0.04319550919289313</v>
+      </c>
+      <c r="T19">
+        <v>0.05324825803070938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H20">
+        <v>424.850525</v>
+      </c>
+      <c r="I20">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J20">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P20">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q20">
+        <v>255.4074845254778</v>
+      </c>
+      <c r="R20">
+        <v>2298.667360729301</v>
+      </c>
+      <c r="S20">
+        <v>0.04825731032707597</v>
+      </c>
+      <c r="T20">
+        <v>0.05948807550084238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H21">
+        <v>424.850525</v>
+      </c>
+      <c r="I21">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J21">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.651809</v>
+      </c>
+      <c r="O21">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P21">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q21">
+        <v>30.76904398330278</v>
+      </c>
+      <c r="R21">
+        <v>276.921395849725</v>
+      </c>
+      <c r="S21">
+        <v>0.005813577886052805</v>
+      </c>
+      <c r="T21">
+        <v>0.007166552753801023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>143.783834</v>
+      </c>
+      <c r="H22">
+        <v>431.351502</v>
+      </c>
+      <c r="I22">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J22">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.8598525</v>
+      </c>
+      <c r="N22">
+        <v>3.719705</v>
+      </c>
+      <c r="O22">
+        <v>0.2596064746988193</v>
+      </c>
+      <c r="P22">
+        <v>0.1894665655147375</v>
+      </c>
+      <c r="Q22">
+        <v>267.416723124485</v>
+      </c>
+      <c r="R22">
+        <v>1604.50033874691</v>
+      </c>
+      <c r="S22">
+        <v>0.05052636502976374</v>
+      </c>
+      <c r="T22">
+        <v>0.04152346656291334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>143.783834</v>
+      </c>
+      <c r="H23">
+        <v>431.351502</v>
+      </c>
+      <c r="I23">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J23">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.669152333333334</v>
+      </c>
+      <c r="N23">
+        <v>5.007457</v>
+      </c>
+      <c r="O23">
+        <v>0.2329876982136891</v>
+      </c>
+      <c r="P23">
+        <v>0.2550593877075549</v>
+      </c>
+      <c r="Q23">
+        <v>239.9971220167127</v>
+      </c>
+      <c r="R23">
+        <v>2159.974098150414</v>
+      </c>
+      <c r="S23">
+        <v>0.04534563901399809</v>
+      </c>
+      <c r="T23">
+        <v>0.05589878049596038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>143.783834</v>
+      </c>
+      <c r="H24">
+        <v>431.351502</v>
+      </c>
+      <c r="I24">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J24">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>1.614337</v>
+      </c>
+      <c r="N24">
+        <v>4.843011</v>
+      </c>
+      <c r="O24">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P24">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q24">
+        <v>232.115563228058</v>
+      </c>
+      <c r="R24">
+        <v>2089.040069052522</v>
+      </c>
+      <c r="S24">
+        <v>0.04385647815783977</v>
+      </c>
+      <c r="T24">
+        <v>0.05406305212975799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.783834</v>
+      </c>
+      <c r="H25">
+        <v>431.351502</v>
+      </c>
+      <c r="I25">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J25">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P25">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q25">
+        <v>259.3156783132293</v>
+      </c>
+      <c r="R25">
+        <v>2333.841104819064</v>
+      </c>
+      <c r="S25">
+        <v>0.04899573395152172</v>
+      </c>
+      <c r="T25">
+        <v>0.06039835002764268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.651809</v>
+      </c>
+      <c r="O26">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P26">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q26">
+        <v>31.23986568523533</v>
+      </c>
+      <c r="R26">
+        <v>281.158791167118</v>
+      </c>
+      <c r="S26">
+        <v>0.005902536081702764</v>
+      </c>
+      <c r="T26">
+        <v>0.007276213897851031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H27">
+        <v>106.034229</v>
+      </c>
+      <c r="I27">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J27">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.8598525</v>
+      </c>
+      <c r="N27">
+        <v>3.719705</v>
+      </c>
+      <c r="O27">
+        <v>0.2596064746988193</v>
+      </c>
+      <c r="P27">
+        <v>0.1894665655147375</v>
+      </c>
+      <c r="Q27">
+        <v>98.60401294561127</v>
+      </c>
+      <c r="R27">
+        <v>394.4160517824451</v>
+      </c>
+      <c r="S27">
+        <v>0.01863048164407537</v>
+      </c>
+      <c r="T27">
+        <v>0.01020724105976521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H28">
+        <v>106.034229</v>
+      </c>
+      <c r="I28">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J28">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.669152333333334</v>
+      </c>
+      <c r="N28">
+        <v>5.007457</v>
+      </c>
+      <c r="O28">
+        <v>0.2329876982136891</v>
+      </c>
+      <c r="P28">
+        <v>0.2550593877075549</v>
+      </c>
+      <c r="Q28">
+        <v>88.49364037427551</v>
+      </c>
+      <c r="R28">
+        <v>530.9618422456531</v>
+      </c>
+      <c r="S28">
+        <v>0.01672020329963384</v>
+      </c>
+      <c r="T28">
+        <v>0.01374096082764862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H29">
+        <v>106.034229</v>
+      </c>
+      <c r="I29">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J29">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>1.614337</v>
+      </c>
+      <c r="N29">
+        <v>4.843011</v>
+      </c>
+      <c r="O29">
+        <v>0.225336330459468</v>
+      </c>
+      <c r="P29">
+        <v>0.2466831807683927</v>
+      </c>
+      <c r="Q29">
+        <v>85.5874895705865</v>
+      </c>
+      <c r="R29">
+        <v>513.5249374235191</v>
+      </c>
+      <c r="S29">
+        <v>0.01617110810983758</v>
+      </c>
+      <c r="T29">
+        <v>0.01328970462230058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="H19">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="I19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="J19">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.32114168395456</v>
-      </c>
-      <c r="N19">
-        <v>1.32114168395456</v>
-      </c>
-      <c r="O19">
-        <v>0.2755283853505588</v>
-      </c>
-      <c r="P19">
-        <v>0.2755283853505588</v>
-      </c>
-      <c r="Q19">
-        <v>69.94779344815719</v>
-      </c>
-      <c r="R19">
-        <v>69.94779344815719</v>
-      </c>
-      <c r="S19">
-        <v>0.02005777203395452</v>
-      </c>
-      <c r="T19">
-        <v>0.02005777203395452</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H30">
+        <v>106.034229</v>
+      </c>
+      <c r="I30">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J30">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.803510666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.410532000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2517420312928313</v>
+      </c>
+      <c r="P30">
+        <v>0.2755903803252095</v>
+      </c>
+      <c r="Q30">
+        <v>95.61693151663802</v>
+      </c>
+      <c r="R30">
+        <v>573.7015890998281</v>
+      </c>
+      <c r="S30">
+        <v>0.01806609522541571</v>
+      </c>
+      <c r="T30">
+        <v>0.01484703878011122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H31">
+        <v>106.034229</v>
+      </c>
+      <c r="I31">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J31">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.2172696666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.651809</v>
+      </c>
+      <c r="O31">
+        <v>0.03032746533519238</v>
+      </c>
+      <c r="P31">
+        <v>0.03320048568410545</v>
+      </c>
+      <c r="Q31">
+        <v>11.5190107950435</v>
+      </c>
+      <c r="R31">
+        <v>69.11406477026101</v>
+      </c>
+      <c r="S31">
+        <v>0.002176429870996602</v>
+      </c>
+      <c r="T31">
+        <v>0.001788628826190384</v>
       </c>
     </row>
   </sheetData>
